--- a/resources/ExcelFiles/pluerat_latestfile.xlsx
+++ b/resources/ExcelFiles/pluerat_latestfile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="CloudService" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <externalReferences>
     <externalReference r:id="rId26"/>
   </externalReferences>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="2311">
   <si>
     <t>Name of the Cloud Service</t>
   </si>
@@ -7862,8 +7862,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
+      <selection activeCell="AI51" sqref="AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8100,7 +8100,9 @@
       <c r="AB2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>2235</v>
+      </c>
       <c r="AD2" s="4" t="s">
         <v>116</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>54</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AI32" s="4" t="s">
         <v>2283</v>
@@ -13237,7 +13239,7 @@
         <v>54</v>
       </c>
       <c r="AH49" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AI49" s="4" t="s">
         <v>141</v>
@@ -13346,7 +13348,7 @@
         <v>54</v>
       </c>
       <c r="AH50" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AI50" s="4" t="s">
         <v>141</v>
@@ -13548,7 +13550,7 @@
         <v>54</v>
       </c>
       <c r="AH52" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AI52" s="4" t="s">
         <v>141</v>
@@ -23791,8 +23793,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23887,7 +23889,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ExcelFiles/pluerat_latestfile.xlsx
+++ b/resources/ExcelFiles/pluerat_latestfile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="4980"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="12735" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="CloudService" sheetId="1" r:id="rId1"/>
@@ -7412,7 +7412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -7482,22 +7482,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7506,7 +7496,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7514,25 +7503,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7862,5725 +7867,5731 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
-      <selection activeCell="AI51" sqref="AI51"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" customWidth="1"/>
-    <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="27.7109375" customWidth="1"/>
-    <col min="25" max="25" width="32.140625" customWidth="1"/>
-    <col min="26" max="26" width="25.42578125" customWidth="1"/>
-    <col min="27" max="27" width="31.140625" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" customWidth="1"/>
-    <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" customWidth="1"/>
-    <col min="32" max="32" width="36" customWidth="1"/>
-    <col min="33" max="33" width="30.42578125" customWidth="1"/>
-    <col min="34" max="34" width="27.85546875" customWidth="1"/>
-    <col min="35" max="35" width="14.140625" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" customWidth="1"/>
-    <col min="37" max="37" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="11" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18" style="11" customWidth="1"/>
+    <col min="9" max="9" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18" style="11" customWidth="1"/>
+    <col min="14" max="14" width="22" style="11" customWidth="1"/>
+    <col min="15" max="15" width="36.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="31" style="11" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="22" style="11" customWidth="1"/>
+    <col min="24" max="24" width="27.7109375" style="11" customWidth="1"/>
+    <col min="25" max="25" width="32.140625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="25.42578125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="11" customWidth="1"/>
+    <col min="29" max="29" width="21" style="11" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" style="11" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" style="11" customWidth="1"/>
+    <col min="32" max="32" width="36" style="11" customWidth="1"/>
+    <col min="33" max="33" width="30.42578125" style="11" customWidth="1"/>
+    <col min="34" max="34" width="27.85546875" style="11" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" style="11" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" style="11" customWidth="1"/>
+    <col min="37" max="37" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="330" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>2205</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>2223</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="O2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="4">
+      <c r="U2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="2">
         <v>12</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="6">
         <v>12</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="2">
         <v>12</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="2">
         <v>12</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>2235</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="2" t="s">
         <v>2257</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="2" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1927</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>2020</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>2206</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>2224</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="12">
+      <c r="R3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="7">
         <v>100</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="2">
         <v>12</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="6">
         <v>12</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="2">
         <v>12</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="2">
         <v>12</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>2235</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AH3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>2295</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>2021</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="O4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="12">
+      <c r="U4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="7">
         <v>99.93</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="2">
         <v>6</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="6">
         <v>6</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="2">
         <v>6</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="2">
         <v>6</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AB4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>2246</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="2" t="s">
         <v>2246</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH4" s="2" t="s">
         <v>2258</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" s="17" t="s">
+      <c r="AI4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="330" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>2027</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="9" t="s">
+      <c r="O5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="9" t="s">
+      <c r="R5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="13">
+      <c r="U5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="8">
         <v>0.99995000000000001</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="9">
         <v>12</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="6">
         <v>12</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="9">
         <v>12</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="9">
         <v>12</v>
       </c>
-      <c r="AB5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AB5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AH5" s="2" t="s">
         <v>2259</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ5" s="17" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="2" t="s">
         <v>2287</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="270" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="8" t="s">
+      <c r="O6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="8" t="s">
+      <c r="R6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="12">
+      <c r="U6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="7">
         <v>99.9</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="2">
         <v>12</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="4">
         <v>12</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="2">
         <v>12</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="2">
         <v>12</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="AF6" s="8" t="s">
+      <c r="AF6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG6" s="8" t="s">
+      <c r="AG6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AH6" s="2" t="s">
         <v>2260</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
+      <c r="AI6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AK6" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="O7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="8" t="s">
+      <c r="R7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="U7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="12">
+      <c r="U7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="7">
         <v>99.98</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" s="4" t="s">
+      <c r="X7" s="2"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AF7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AG7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AH7" s="2" t="s">
         <v>2261</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AI7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ7" s="17" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AK7" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="300" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>2225</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="O8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="8" t="s">
+      <c r="R8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="8">
+      <c r="U8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="4">
         <v>6</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4" t="s">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" s="2" t="s">
         <v>2237</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AF8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="AH8" s="2" t="s">
         <v>2262</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AI8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ8" s="17" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="AK8" s="2" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1938</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>2044</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>2045</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>2046</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="O9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="R9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="12">
+      <c r="U9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="7">
         <v>99.98</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4" t="s">
+      <c r="X9" s="2"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="s">
         <v>2238</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AC9" s="2" t="s">
         <v>2237</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF9" s="8" t="s">
+      <c r="AF9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG9" s="8" t="s">
+      <c r="AG9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AH9" s="2" t="s">
         <v>2261</v>
       </c>
-      <c r="AI9" s="4" t="s">
+      <c r="AI9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ9" s="17" t="s">
+      <c r="AJ9" s="4" t="s">
         <v>2297</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AK9" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="330" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>2050</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+      <c r="O10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="R10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10" s="12">
+      <c r="U10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="7">
         <v>99.5</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="2">
         <v>12</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="4">
         <v>12</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="2">
         <v>12</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="2">
         <v>12</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AB10" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AC10" s="2" t="s">
         <v>2237</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF10" s="8" t="s">
+      <c r="AF10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG10" s="8" t="s">
+      <c r="AG10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AH10" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AI10" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="AJ10" s="17" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AK10" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="225" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>2051</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>2055</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="8" t="s">
+      <c r="O11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="8" t="s">
+      <c r="R11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="12">
+      <c r="U11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="7">
         <v>99.5</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="2">
         <v>12</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="4">
         <v>12</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="2">
         <v>12</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="2">
         <v>12</v>
       </c>
-      <c r="AB11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AB11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG11" s="8" t="s">
+      <c r="AG11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AH11" s="2" t="s">
         <v>2264</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AI11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ11" s="17" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AK11" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>2057</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>2059</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>2207</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="8" t="s">
+      <c r="O12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="8" t="s">
+      <c r="R12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12" s="12">
+      <c r="U12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="7">
         <v>99.98</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="2">
         <v>1</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="6">
         <v>1</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD12" s="4" t="s">
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AF12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AG12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH12" s="5" t="s">
+      <c r="AH12" s="2" t="s">
         <v>2265</v>
       </c>
-      <c r="AI12" s="4" t="s">
+      <c r="AI12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ12" s="17" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>2295</v>
       </c>
-      <c r="AK12" s="4" t="s">
+      <c r="AK12" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>2208</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="8" t="s">
+      <c r="O13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="8" t="s">
+      <c r="R13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W13" s="12">
+      <c r="U13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" s="7">
         <v>99.9</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="2">
         <v>12</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="6">
         <v>12</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="2">
         <v>12</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="2">
         <v>12</v>
       </c>
-      <c r="AB13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AB13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>2250</v>
       </c>
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" s="2" t="s">
         <v>2250</v>
       </c>
-      <c r="AF13" s="8" t="s">
+      <c r="AF13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AG13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH13" s="5" t="s">
+      <c r="AH13" s="2" t="s">
         <v>2266</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AI13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AJ13" s="17" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AK13" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="330" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>2063</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>2065</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="2" t="s">
         <v>2067</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>2227</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S14" s="8" t="s">
+      <c r="O14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W14" s="12">
+      <c r="U14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="7">
         <v>99.5</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="2">
         <v>12</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="6">
         <v>12</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="2">
         <v>12</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="2">
         <v>12</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="2" t="s">
         <v>2239</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF14" s="8" t="s">
+      <c r="AF14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG14" s="8" t="s">
+      <c r="AG14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AH14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ14" s="17" t="s">
+      <c r="AJ14" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AK14" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="270" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>2069</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="8" t="s">
+      <c r="O15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="8" t="s">
+      <c r="R15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" s="12"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD15" s="4" t="s">
+      <c r="U15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>2250</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="2" t="s">
         <v>2250</v>
       </c>
-      <c r="AF15" s="8" t="s">
+      <c r="AF15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG15" s="8" t="s">
+      <c r="AG15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH15" s="5" t="s">
+      <c r="AH15" s="2" t="s">
         <v>2267</v>
       </c>
-      <c r="AI15" s="4" t="s">
+      <c r="AI15" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="AJ15" s="17" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK15" s="5" t="s">
+      <c r="AK15" s="2" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1951</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>2071</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>2073</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>2074</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="8" t="s">
+      <c r="O16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16" s="8" t="s">
+      <c r="R16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="12">
+      <c r="U16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="7">
         <v>99.95</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="2">
         <v>12</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="6">
         <v>12</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="2">
         <v>12</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="2">
         <v>12</v>
       </c>
-      <c r="AB16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AB16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG16" s="8" t="s">
+      <c r="AF16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ16" s="17" t="s">
+      <c r="AH16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AK16" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="285" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>2075</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>2076</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>2077</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>2078</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S17" s="8" t="s">
+      <c r="O17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="12">
+      <c r="U17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="7">
         <v>99.95</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="2">
         <v>12</v>
       </c>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2">
         <v>12</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AB17" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="AC17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AC17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG17" s="8" t="s">
+      <c r="AF17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AH17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AI17" s="4" t="s">
+      <c r="AI17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ17" s="17" t="s">
+      <c r="AJ17" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AK17" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="315" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="8" t="s">
+      <c r="O18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD18" s="4" t="s">
+      <c r="U18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="7"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF18" s="8" t="s">
+      <c r="AF18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG18" s="8" t="s">
+      <c r="AG18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH18" s="5" t="s">
+      <c r="AH18" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="AI18" s="4" t="s">
+      <c r="AI18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ18" s="17" t="s">
+      <c r="AJ18" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK18" s="5" t="s">
+      <c r="AK18" s="2" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="210" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>2083</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>2084</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>2085</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="K19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="O19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="8" t="s">
+      <c r="R19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W19" s="12">
+      <c r="U19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="7">
         <v>99.9</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="2">
         <v>12</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="6">
         <v>12</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="2">
         <v>12</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="2">
         <v>12</v>
       </c>
-      <c r="AB19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AB19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AE19" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG19" s="8" t="s">
+      <c r="AF19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI19" s="5" t="s">
+      <c r="AH19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ19" s="17" t="s">
+      <c r="AJ19" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="AK19" s="4" t="s">
+      <c r="AK19" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="195" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>1960</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>2086</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="8" t="s">
+      <c r="O20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S20" s="8" t="s">
+      <c r="R20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" s="12">
+      <c r="U20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="7">
         <v>99.99</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4">
+      <c r="X20" s="2"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
         <v>12</v>
       </c>
-      <c r="AB20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AB20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="2" t="s">
         <v>2240</v>
       </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AD20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF20" s="8" t="s">
+      <c r="AF20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG20" s="8" t="s">
+      <c r="AG20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH20" s="5" t="s">
+      <c r="AH20" s="2" t="s">
         <v>2269</v>
       </c>
-      <c r="AI20" s="5" t="s">
+      <c r="AI20" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ20" s="17" t="s">
+      <c r="AJ20" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK20" s="4" t="s">
+      <c r="AK20" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="285" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>1961</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>2227</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S21" s="8" t="s">
+      <c r="O21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="4">
+      <c r="U21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="2">
         <v>12</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y21" s="6">
         <v>12</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="2">
         <v>12</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="2">
         <v>12</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AB21" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="AC21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AC21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG21" s="8" t="s">
+      <c r="AF21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI21" s="5" t="s">
+      <c r="AH21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ21" s="17" t="s">
+      <c r="AJ21" s="4" t="s">
         <v>2300</v>
       </c>
-      <c r="AK21" s="4" t="s">
+      <c r="AK21" s="2" t="s">
         <v>2291</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="360" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>2092</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="2" t="s">
         <v>2096</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="2" t="s">
         <v>2210</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="8" t="s">
+      <c r="O22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="8" t="s">
+      <c r="R22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" s="12"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD22" s="4" t="s">
+      <c r="U22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG22" s="8" t="s">
+      <c r="AF22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH22" s="5" t="s">
+      <c r="AH22" s="2" t="s">
         <v>2270</v>
       </c>
-      <c r="AI22" s="5" t="s">
+      <c r="AI22" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ22" s="17" t="s">
+      <c r="AJ22" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="AK22" s="4" t="s">
+      <c r="AK22" s="2" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="255" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>2097</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>2098</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>2099</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="8" t="s">
+      <c r="O23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="12"/>
-      <c r="X23" s="4">
+      <c r="U23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="2">
         <v>12</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="6">
         <v>12</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="2">
         <v>12</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA23" s="2">
         <v>12</v>
       </c>
-      <c r="AB23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD23" s="4" t="s">
+      <c r="AB23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG23" s="8" t="s">
+      <c r="AF23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI23" s="5" t="s">
+      <c r="AH23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ23" s="8" t="s">
+      <c r="AJ23" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="AK23" s="4" t="s">
+      <c r="AK23" s="2" t="s">
         <v>2291</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="195" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>1960</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>2101</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>2102</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="K24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="8" t="s">
+      <c r="O24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S24" s="8" t="s">
+      <c r="R24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24" s="12">
+      <c r="U24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="7">
         <v>99.99</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="8">
+      <c r="X24" s="2"/>
+      <c r="Y24" s="4">
         <v>12</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="Z24" s="2">
         <v>12</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="2">
         <v>12</v>
       </c>
-      <c r="AB24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AB24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC24" s="2" t="s">
         <v>2240</v>
       </c>
-      <c r="AD24" s="4" t="s">
+      <c r="AD24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AE24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG24" s="8" t="s">
+      <c r="AF24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH24" s="5" t="s">
+      <c r="AH24" s="2" t="s">
         <v>2269</v>
       </c>
-      <c r="AI24" s="5" t="s">
+      <c r="AI24" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ24" s="17" t="s">
+      <c r="AJ24" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK24" s="5" t="s">
+      <c r="AK24" s="2" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="255" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>2103</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>2104</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>2105</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>2106</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="K25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S25" s="8" t="s">
+      <c r="O25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="T25" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="12"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD25" s="4" t="s">
+      <c r="U25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG25" s="8" t="s">
+      <c r="AF25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI25" s="5" t="s">
+      <c r="AH25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ25" s="17" t="s">
+      <c r="AJ25" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="AK25" s="4" t="s">
+      <c r="AK25" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="210" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>2108</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>2109</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="2" t="s">
         <v>2211</v>
       </c>
-      <c r="K26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="K26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q26" s="8" t="s">
+      <c r="O26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S26" s="8" t="s">
+      <c r="R26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="12">
+      <c r="U26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="7">
         <v>99.5</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="2">
         <v>12</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="6">
         <v>12</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26" s="2">
         <v>12</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="2">
         <v>12</v>
       </c>
-      <c r="AB26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AB26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>2252</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AE26" s="2" t="s">
         <v>2252</v>
       </c>
-      <c r="AF26" s="8" t="s">
+      <c r="AF26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG26" s="8" t="s">
+      <c r="AG26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI26" s="4" t="s">
+      <c r="AH26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ26" s="17" t="s">
+      <c r="AJ26" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK26" s="4" t="s">
+      <c r="AK26" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="195" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="K27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>2227</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="8" t="s">
+      <c r="O27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="12"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="4">
+      <c r="U27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="2">
         <v>12</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AA27" s="2">
         <v>12</v>
       </c>
-      <c r="AB27" s="4" t="s">
+      <c r="AB27" s="2" t="s">
         <v>2241</v>
       </c>
-      <c r="AC27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AC27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AE27" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG27" s="8" t="s">
+      <c r="AF27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI27" s="4" t="s">
+      <c r="AH27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ27" s="17" t="s">
+      <c r="AJ27" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="AK27" s="4" t="s">
+      <c r="AK27" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="195" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>2114</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>2116</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="K28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>2227</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="8" t="s">
+      <c r="O28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S28" s="8" t="s">
+      <c r="R28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="T28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="12">
+      <c r="U28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="7">
         <v>99.997</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="2">
         <v>12</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="6">
         <v>12</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28" s="2">
         <v>12</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AA28" s="2">
         <v>12</v>
       </c>
-      <c r="AB28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD28" s="4" t="s">
+      <c r="AB28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AE28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG28" s="8" t="s">
+      <c r="AF28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH28" s="5" t="s">
+      <c r="AH28" s="2" t="s">
         <v>2271</v>
       </c>
-      <c r="AI28" s="5" t="s">
+      <c r="AI28" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ28" s="17" t="s">
+      <c r="AJ28" s="4" t="s">
         <v>2300</v>
       </c>
-      <c r="AK28" s="4" t="s">
+      <c r="AK28" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="225" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>2117</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>2118</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="14" t="s">
         <v>2119</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>2120</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="K29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="8" t="s">
+      <c r="O29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T29" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="12">
+      <c r="U29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="7">
         <v>99.99</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29" s="2">
         <v>12</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Y29" s="6">
         <v>12</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="Z29" s="2">
         <v>12</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AA29" s="2">
         <v>12</v>
       </c>
-      <c r="AB29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AB29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AE29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG29" s="8" t="s">
+      <c r="AF29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH29" s="5" t="s">
+      <c r="AH29" s="2" t="s">
         <v>2272</v>
       </c>
-      <c r="AI29" s="5" t="s">
+      <c r="AI29" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ29" s="17" t="s">
+      <c r="AJ29" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK29" s="4" t="s">
+      <c r="AK29" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="315" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>2121</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>2122</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>2123</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="K30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S30" s="8" t="s">
+      <c r="O30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="12">
+      <c r="U30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="7">
         <v>99.99</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD30" s="4" t="s">
+      <c r="X30" s="2"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="2" t="s">
         <v>2253</v>
       </c>
-      <c r="AE30" s="4" t="s">
+      <c r="AE30" s="2" t="s">
         <v>2253</v>
       </c>
-      <c r="AF30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG30" s="8" t="s">
+      <c r="AF30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH30" s="4" t="s">
+      <c r="AH30" s="2" t="s">
         <v>2273</v>
       </c>
-      <c r="AI30" s="5" t="s">
+      <c r="AI30" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ30" s="17" t="s">
+      <c r="AJ30" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="AK30" s="4" t="s">
+      <c r="AK30" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>1979</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="K31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>2225</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q31" s="8" t="s">
+      <c r="O31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S31" s="8" t="s">
+      <c r="R31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="12">
+      <c r="U31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="7">
         <v>99</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X31" s="2">
         <v>12</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y31" s="6">
         <v>12</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="Z31" s="2">
         <v>12</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AA31" s="2">
         <v>12</v>
       </c>
-      <c r="AB31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AB31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AE31" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG31" s="8" t="s">
+      <c r="AF31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH31" s="4" t="s">
+      <c r="AH31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AI31" s="5" t="s">
+      <c r="AI31" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ31" s="17" t="s">
+      <c r="AJ31" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="AK31" s="4" t="s">
+      <c r="AK31" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="360" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>2128</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>2129</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>2130</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="K32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>2225</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S32" s="8" t="s">
+      <c r="O32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W32" s="12">
+      <c r="U32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" s="7">
         <v>99.99</v>
       </c>
-      <c r="X32" s="4">
+      <c r="X32" s="2">
         <v>12</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Y32" s="6">
         <v>12</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="Z32" s="2">
         <v>12</v>
       </c>
-      <c r="AA32" s="4">
+      <c r="AA32" s="2">
         <v>12</v>
       </c>
-      <c r="AB32" s="4" t="s">
+      <c r="AB32" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="AC32" s="4" t="s">
+      <c r="AC32" s="2" t="s">
         <v>2239</v>
       </c>
-      <c r="AD32" s="4" t="s">
+      <c r="AD32" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE32" s="4" t="s">
+      <c r="AE32" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF32" s="8" t="s">
+      <c r="AF32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG32" s="8" t="s">
+      <c r="AG32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI32" s="4" t="s">
+      <c r="AH32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI32" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="AJ32" s="17" t="s">
+      <c r="AJ32" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK32" s="4" t="s">
+      <c r="AK32" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="345" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>1983</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>2132</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>2133</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>2134</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="2" t="s">
         <v>2212</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="K33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q33" s="8" t="s">
+      <c r="O33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S33" s="8" t="s">
+      <c r="R33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="T33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" s="12">
+      <c r="U33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" s="7">
         <v>99.95</v>
       </c>
-      <c r="X33" s="4">
+      <c r="X33" s="2">
         <v>6</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="6">
         <v>6</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="Z33" s="2">
         <v>6</v>
       </c>
-      <c r="AA33" s="4">
+      <c r="AA33" s="2">
         <v>6</v>
       </c>
-      <c r="AB33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD33" s="4" t="s">
+      <c r="AB33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AE33" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG33" s="8" t="s">
+      <c r="AF33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH33" s="5" t="s">
+      <c r="AH33" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="AI33" s="5" t="s">
+      <c r="AI33" s="2" t="s">
         <v>2284</v>
       </c>
-      <c r="AJ33" s="17" t="s">
+      <c r="AJ33" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK33" s="4" t="s">
+      <c r="AK33" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="255" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>2137</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="2" t="s">
         <v>2213</v>
       </c>
-      <c r="K34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="K34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q34" s="8" t="s">
+      <c r="O34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S34" s="8" t="s">
+      <c r="R34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="12">
+      <c r="U34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="7">
         <v>99.8</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4" t="s">
+      <c r="X34" s="2"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2" t="s">
         <v>2242</v>
       </c>
-      <c r="AC34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AC34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE34" s="4" t="s">
+      <c r="AE34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF34" s="8" t="s">
+      <c r="AF34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG34" s="8" t="s">
+      <c r="AG34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH34" s="5" t="s">
+      <c r="AH34" s="2" t="s">
         <v>2275</v>
       </c>
-      <c r="AI34" s="4" t="s">
+      <c r="AI34" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="AJ34" s="17" t="s">
+      <c r="AJ34" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK34" s="4" t="s">
+      <c r="AK34" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="315" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>2138</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>2139</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="2" t="s">
         <v>2140</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="2" t="s">
         <v>2141</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="5" t="s">
+      <c r="K35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q35" s="8" t="s">
+      <c r="O35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S35" s="8" t="s">
+      <c r="R35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S35" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T35" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W35" s="12">
+      <c r="U35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" s="7">
         <v>99.93</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X35" s="2">
         <v>6</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="Y35" s="6">
         <v>6</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="Z35" s="2">
         <v>6</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AA35" s="2">
         <v>6</v>
       </c>
-      <c r="AB35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AB35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AE35" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG35" s="8" t="s">
+      <c r="AF35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH35" s="5" t="s">
+      <c r="AH35" s="2" t="s">
         <v>2276</v>
       </c>
-      <c r="AI35" s="4" t="s">
+      <c r="AI35" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="AJ35" s="17" t="s">
+      <c r="AJ35" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK35" s="4" t="s">
+      <c r="AK35" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="360" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>2142</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>2143</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>2144</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="K36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S36" s="8" t="s">
+      <c r="O36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W36" s="12"/>
-      <c r="X36" s="4">
+      <c r="U36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" s="7"/>
+      <c r="X36" s="2">
         <v>6</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="Y36" s="6">
         <v>6</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="Z36" s="2">
         <v>6</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AA36" s="2">
         <v>6</v>
       </c>
-      <c r="AB36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD36" s="4" t="s">
+      <c r="AB36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE36" s="4" t="s">
+      <c r="AE36" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG36" s="8" t="s">
+      <c r="AF36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH36" s="5" t="s">
+      <c r="AH36" s="2" t="s">
         <v>2276</v>
       </c>
-      <c r="AI36" s="4" t="s">
+      <c r="AI36" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ36" s="17" t="s">
+      <c r="AJ36" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK36" s="4" t="s">
+      <c r="AK36" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="225" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>1991</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>2146</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>2147</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>2148</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="2" t="s">
         <v>2150</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="K37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q37" s="8" t="s">
+      <c r="O37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S37" s="8" t="s">
+      <c r="R37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T37" s="11" t="s">
+      <c r="T37" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W37" s="12">
+      <c r="U37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" s="7">
         <v>99</v>
       </c>
-      <c r="X37" s="4">
+      <c r="X37" s="2">
         <v>6</v>
       </c>
-      <c r="Y37" s="16">
+      <c r="Y37" s="5">
         <v>6</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="Z37" s="2">
         <v>6</v>
       </c>
-      <c r="AA37" s="4">
+      <c r="AA37" s="2">
         <v>6</v>
       </c>
-      <c r="AB37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD37" s="4" t="s">
+      <c r="AB37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE37" s="4" t="s">
+      <c r="AE37" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG37" s="8" t="s">
+      <c r="AF37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH37" s="5" t="s">
+      <c r="AH37" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="AI37" s="5" t="s">
+      <c r="AI37" s="2" t="s">
         <v>2284</v>
       </c>
-      <c r="AJ37" s="17" t="s">
+      <c r="AJ37" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="AK37" s="4" t="s">
+      <c r="AK37" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="360" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>2151</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>2152</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>2153</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="2" t="s">
         <v>2141</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="2" t="s">
         <v>2215</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="4" t="s">
+      <c r="K38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="8" t="s">
+      <c r="O38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S38" s="8" t="s">
+      <c r="R38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W38" s="12"/>
-      <c r="X38" s="4">
+      <c r="U38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" s="7"/>
+      <c r="X38" s="2">
         <v>6</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y38" s="4">
         <v>6</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="Z38" s="2">
         <v>6</v>
       </c>
-      <c r="AA38" s="4">
+      <c r="AA38" s="2">
         <v>6</v>
       </c>
-      <c r="AB38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD38" s="4" t="s">
+      <c r="AB38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AE38" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF38" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG38" s="8" t="s">
+      <c r="AF38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH38" s="5" t="s">
+      <c r="AH38" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="AI38" s="4" t="s">
+      <c r="AI38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ38" s="17" t="s">
+      <c r="AJ38" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="AK38" s="4" t="s">
+      <c r="AK38" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="315" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>2154</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>2155</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="2" t="s">
         <v>2156</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
         <v>2157</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="2" t="s">
         <v>1870</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="4" t="s">
+      <c r="K39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q39" s="8" t="s">
+      <c r="O39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S39" s="8" t="s">
+      <c r="R39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T39" s="11" t="s">
+      <c r="T39" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W39" s="12"/>
-      <c r="X39" s="4">
+      <c r="U39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="2">
         <v>6</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Y39" s="6">
         <v>6</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="Z39" s="2">
         <v>6</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AA39" s="2">
         <v>6</v>
       </c>
-      <c r="AB39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AB39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE39" s="4" t="s">
+      <c r="AE39" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG39" s="8" t="s">
+      <c r="AF39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH39" s="5" t="s">
+      <c r="AH39" s="2" t="s">
         <v>2264</v>
       </c>
-      <c r="AI39" s="4" t="s">
+      <c r="AI39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ39" s="17" t="s">
+      <c r="AJ39" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="AK39" s="4" t="s">
+      <c r="AK39" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="255" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>2158</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>2159</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="2" t="s">
         <v>2160</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="2" t="s">
         <v>2161</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="2" t="s">
         <v>2213</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="5" t="s">
+      <c r="K40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>2225</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S40" s="8" t="s">
+      <c r="O40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="T40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W40" s="12">
+      <c r="U40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" s="7">
         <v>99.2</v>
       </c>
-      <c r="X40" s="4">
+      <c r="X40" s="2">
         <v>12</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="Y40" s="4">
         <v>12</v>
       </c>
-      <c r="Z40" s="4">
+      <c r="Z40" s="2">
         <v>12</v>
       </c>
-      <c r="AA40" s="4">
+      <c r="AA40" s="2">
         <v>12</v>
       </c>
-      <c r="AB40" s="4" t="s">
+      <c r="AB40" s="2" t="s">
         <v>2238</v>
       </c>
-      <c r="AC40" s="4" t="s">
+      <c r="AC40" s="2" t="s">
         <v>2243</v>
       </c>
-      <c r="AD40" s="4" t="s">
+      <c r="AD40" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE40" s="4" t="s">
+      <c r="AE40" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG40" s="8" t="s">
+      <c r="AF40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI40" s="4" t="s">
+      <c r="AH40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ40" s="17" t="s">
+      <c r="AJ40" s="4" t="s">
         <v>2303</v>
       </c>
-      <c r="AK40" s="4" t="s">
+      <c r="AK40" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="225" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>2162</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>2163</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="2" t="s">
         <v>2164</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="2" t="s">
         <v>2216</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L41" s="4" t="s">
+      <c r="K41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S41" s="8" t="s">
+      <c r="O41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T41" s="11" t="s">
+      <c r="T41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W41" s="12">
+      <c r="U41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="7">
         <v>99.99</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG41" s="8" t="s">
+      <c r="X41" s="2"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH41" s="4" t="s">
+      <c r="AH41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AI41" s="5" t="s">
+      <c r="AI41" s="2" t="s">
         <v>2285</v>
       </c>
-      <c r="AJ41" s="17" t="s">
+      <c r="AJ41" s="4" t="s">
         <v>2304</v>
       </c>
-      <c r="AK41" s="4" t="s">
+      <c r="AK41" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="285" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>1997</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>2165</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>2166</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="2" t="s">
         <v>2167</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" s="5" t="s">
+      <c r="K42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q42" s="8" t="s">
+      <c r="O42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S42" s="8" t="s">
+      <c r="R42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W42" s="12"/>
-      <c r="X42" s="4">
+      <c r="U42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="2">
         <v>6</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Y42" s="4">
         <v>6</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="Z42" s="2">
         <v>6</v>
       </c>
-      <c r="AA42" s="4">
+      <c r="AA42" s="2">
         <v>6</v>
       </c>
-      <c r="AB42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD42" s="4" t="s">
+      <c r="AB42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE42" s="4" t="s">
+      <c r="AE42" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG42" s="8" t="s">
+      <c r="AF42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH42" s="5" t="s">
+      <c r="AH42" s="2" t="s">
         <v>2278</v>
       </c>
-      <c r="AI42" s="4" t="s">
+      <c r="AI42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ42" s="17" t="s">
+      <c r="AJ42" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="AK42" s="4" t="s">
+      <c r="AK42" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="315" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>2168</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>2169</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="2" t="s">
         <v>2170</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="4" t="s">
+      <c r="K43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q43" s="8" t="s">
+      <c r="O43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S43" s="8" t="s">
+      <c r="R43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S43" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T43" s="11" t="s">
+      <c r="T43" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W43" s="12">
+      <c r="U43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" s="7">
         <v>99.95</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" s="2">
         <v>12</v>
       </c>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2">
         <v>12</v>
       </c>
-      <c r="AB43" s="4" t="s">
+      <c r="AB43" s="2" t="s">
         <v>2244</v>
       </c>
-      <c r="AC43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AC43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE43" s="4" t="s">
+      <c r="AE43" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="8" t="s">
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH43" s="5" t="s">
+      <c r="AH43" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="AI43" s="4" t="s">
+      <c r="AI43" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="AJ43" s="8" t="s">
+      <c r="AJ43" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="AK43" s="4" t="s">
+      <c r="AK43" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="195" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>2171</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>2172</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="2" t="s">
         <v>2173</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="4" t="s">
+      <c r="K44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S44" s="8" t="s">
+      <c r="O44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W44" s="12"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD44" s="4" t="s">
+      <c r="U44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE44" s="4" t="s">
+      <c r="AE44" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="8" t="s">
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH44" s="5" t="s">
+      <c r="AH44" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="AI44" s="4" t="s">
+      <c r="AI44" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="AJ44" s="17" t="s">
+      <c r="AJ44" s="4" t="s">
         <v>2305</v>
       </c>
-      <c r="AK44" s="4" t="s">
+      <c r="AK44" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="210" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>2174</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>2175</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
         <v>2176</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="4" t="s">
+      <c r="K45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" s="8" t="s">
+      <c r="O45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S45" s="8" t="s">
+      <c r="R45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S45" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W45" s="12">
+      <c r="U45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" s="7">
         <v>98</v>
       </c>
-      <c r="X45" s="4">
+      <c r="X45" s="2">
         <v>6</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="Y45" s="4">
         <v>6</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="Z45" s="2">
         <v>6</v>
       </c>
-      <c r="AA45" s="4">
+      <c r="AA45" s="2">
         <v>6</v>
       </c>
-      <c r="AB45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AB45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" s="2" t="s">
         <v>2254</v>
       </c>
-      <c r="AE45" s="4" t="s">
+      <c r="AE45" s="2" t="s">
         <v>2254</v>
       </c>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="8" t="s">
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH45" s="5" t="s">
+      <c r="AH45" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="AI45" s="4" t="s">
+      <c r="AI45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ45" s="17" t="s">
+      <c r="AJ45" s="4" t="s">
         <v>2305</v>
       </c>
-      <c r="AK45" s="4" t="s">
+      <c r="AK45" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="210" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>2177</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>2178</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="2" t="s">
         <v>2179</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
         <v>2180</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" s="5" t="s">
+      <c r="K46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q46" s="8" t="s">
+      <c r="O46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S46" s="8" t="s">
+      <c r="R46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T46" s="11" t="s">
+      <c r="T46" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="12">
+      <c r="U46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" s="7">
         <v>99.5</v>
       </c>
-      <c r="X46" s="4">
+      <c r="X46" s="2">
         <v>6</v>
       </c>
-      <c r="Y46" s="8">
+      <c r="Y46" s="4">
         <v>6</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="Z46" s="2">
         <v>6</v>
       </c>
-      <c r="AA46" s="4">
+      <c r="AA46" s="2">
         <v>6</v>
       </c>
-      <c r="AB46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AB46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE46" s="4" t="s">
+      <c r="AE46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="18"/>
-      <c r="AG46" s="8" t="s">
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH46" s="5" t="s">
+      <c r="AH46" s="2" t="s">
         <v>2279</v>
       </c>
-      <c r="AI46" s="4" t="s">
+      <c r="AI46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ46" s="8" t="s">
+      <c r="AJ46" s="4" t="s">
         <v>2306</v>
       </c>
-      <c r="AK46" s="4" t="s">
+      <c r="AK46" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>2181</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>2182</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="2" t="s">
         <v>2183</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="2" t="s">
         <v>2217</v>
       </c>
-      <c r="K47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="4" t="s">
+      <c r="K47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="N47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q47" s="8" t="s">
+      <c r="O47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S47" s="8" t="s">
+      <c r="R47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="T47" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" s="12">
+      <c r="U47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" s="7">
         <v>99.5</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47" s="9">
         <v>6</v>
       </c>
-      <c r="Y47" s="10">
+      <c r="Y47" s="6">
         <v>6</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z47" s="9">
         <v>6</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA47" s="9">
         <v>6</v>
       </c>
-      <c r="AB47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AB47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AE47" s="4" t="s">
+      <c r="AE47" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="8" t="s">
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH47" s="5" t="s">
+      <c r="AH47" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="AI47" s="4" t="s">
+      <c r="AI47" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="AJ47" s="8" t="s">
+      <c r="AJ47" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="AK47" s="4" t="s">
+      <c r="AK47" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="360" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>2184</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>2185</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="2" t="s">
         <v>2186</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="2" t="s">
         <v>2187</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="K48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="K48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="N48" s="18" t="s">
+      <c r="N48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S48" s="8" t="s">
+      <c r="O48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W48" s="12"/>
-      <c r="X48" s="4">
+      <c r="U48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="2">
         <v>6</v>
       </c>
-      <c r="Y48" s="8">
+      <c r="Y48" s="4">
         <v>6</v>
       </c>
-      <c r="Z48" s="4">
+      <c r="Z48" s="2">
         <v>6</v>
       </c>
-      <c r="AA48" s="4">
+      <c r="AA48" s="2">
         <v>6</v>
       </c>
-      <c r="AB48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD48" s="4" t="s">
+      <c r="AB48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" s="2" t="s">
         <v>2255</v>
       </c>
-      <c r="AE48" s="4" t="s">
+      <c r="AE48" s="2" t="s">
         <v>2255</v>
       </c>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="8" t="s">
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI48" s="4" t="s">
+      <c r="AH48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ48" s="17" t="s">
+      <c r="AJ48" s="4" t="s">
         <v>2307</v>
       </c>
-      <c r="AK48" s="4" t="s">
+      <c r="AK48" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="255" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>2005</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>2188</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="2" t="s">
         <v>2189</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="2" t="s">
         <v>2190</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="2" t="s">
         <v>2191</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="2" t="s">
         <v>2219</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" s="4" t="s">
+      <c r="K49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="N49" s="18" t="s">
+      <c r="N49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q49" s="8" t="s">
+      <c r="O49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S49" s="8" t="s">
+      <c r="R49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T49" s="11" t="s">
+      <c r="T49" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="12">
+      <c r="U49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49" s="7">
         <v>99.9</v>
       </c>
-      <c r="X49" s="4">
+      <c r="X49" s="2">
         <v>12</v>
       </c>
-      <c r="Y49" s="10">
+      <c r="Y49" s="6">
         <v>12</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="Z49" s="2">
         <v>12</v>
       </c>
-      <c r="AA49" s="4">
+      <c r="AA49" s="2">
         <v>12</v>
       </c>
-      <c r="AB49" s="4" t="s">
+      <c r="AB49" s="2" t="s">
         <v>2245</v>
       </c>
-      <c r="AC49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD49" s="4" t="s">
+      <c r="AC49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" s="2" t="s">
         <v>2256</v>
       </c>
-      <c r="AE49" s="4" t="s">
+      <c r="AE49" s="2" t="s">
         <v>2256</v>
       </c>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="8" t="s">
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI49" s="4" t="s">
+      <c r="AH49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ49" s="17" t="s">
+      <c r="AJ49" s="4" t="s">
         <v>2305</v>
       </c>
-      <c r="AK49" s="4" t="s">
+      <c r="AK49" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="255" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>2192</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>2193</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>2194</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="2" t="s">
         <v>2220</v>
       </c>
-      <c r="K50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L50" s="4" t="s">
+      <c r="K50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="N50" s="18" t="s">
+      <c r="N50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q50" s="8" t="s">
+      <c r="O50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S50" s="8" t="s">
+      <c r="R50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W50" s="12"/>
-      <c r="X50" s="4">
+      <c r="U50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W50" s="7"/>
+      <c r="X50" s="2">
         <v>12</v>
       </c>
-      <c r="Y50" s="10">
+      <c r="Y50" s="6">
         <v>12</v>
       </c>
-      <c r="Z50" s="4">
+      <c r="Z50" s="2">
         <v>12</v>
       </c>
-      <c r="AA50" s="4">
+      <c r="AA50" s="2">
         <v>12</v>
       </c>
-      <c r="AB50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD50" s="4" t="s">
+      <c r="AB50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AE50" s="4" t="s">
+      <c r="AE50" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="8" t="s">
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI50" s="4" t="s">
+      <c r="AH50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ50" s="17" t="s">
+      <c r="AJ50" s="4" t="s">
         <v>2308</v>
       </c>
-      <c r="AK50" s="4" t="s">
+      <c r="AK50" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="300" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>2195</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>2196</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="2" t="s">
         <v>2197</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
         <v>2198</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="2" t="s">
         <v>2199</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="2" t="s">
         <v>2221</v>
       </c>
-      <c r="K51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L51" s="4" t="s">
+      <c r="K51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="N51" s="18" t="s">
+      <c r="N51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q51" s="8" t="s">
+      <c r="O51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S51" s="8" t="s">
+      <c r="R51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S51" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="U51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W51" s="12"/>
-      <c r="X51" s="4">
+      <c r="U51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W51" s="7"/>
+      <c r="X51" s="2">
         <v>12</v>
       </c>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD51" s="4" t="s">
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE51" s="4" t="s">
+      <c r="AE51" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="8" t="s">
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH51" s="5" t="s">
+      <c r="AH51" s="2" t="s">
         <v>2280</v>
       </c>
-      <c r="AI51" s="4" t="s">
+      <c r="AI51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ51" s="17" t="s">
+      <c r="AJ51" s="4" t="s">
         <v>2308</v>
       </c>
-      <c r="AK51" s="4" t="s">
+      <c r="AK51" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="315" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="2" t="s">
         <v>2201</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="2" t="s">
         <v>2202</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
         <v>2203</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="2" t="s">
         <v>2204</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="2" t="s">
         <v>2222</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L52" s="4" t="s">
+      <c r="K52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="2" t="s">
         <v>2233</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="N52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q52" s="8" t="s">
+      <c r="O52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S52" s="8" t="s">
+      <c r="R52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T52" s="11" t="s">
+      <c r="T52" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" s="12"/>
-      <c r="X52" s="4">
+      <c r="U52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W52" s="7"/>
+      <c r="X52" s="2">
         <v>12</v>
       </c>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD52" s="4" t="s">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AE52" s="4" t="s">
+      <c r="AE52" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="AF52" s="18"/>
-      <c r="AG52" s="8" t="s">
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI52" s="4" t="s">
+      <c r="AH52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI52" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ52" s="8" t="s">
+      <c r="AJ52" s="4" t="s">
         <v>2305</v>
       </c>
-      <c r="AK52" s="5" t="s">
+      <c r="AK52" s="2" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="J53" t="s">
+      <c r="J53" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AK53" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K55" t="s">
+      <c r="K55" s="11" t="s">
         <v>2309</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
+      <c r="F56" s="11" t="s">
         <v>2310</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:AK53">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"not specified"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W52">
       <formula1>0</formula1>
@@ -13744,49 +13755,49 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]availabilityLevelOptional!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]availabilityLevelOptional'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>Q2:Q52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]scalabilityOfferedtoCustomer!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]scalabilityOfferedtoCustomer'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>S2:S52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]MediaType!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]MediaType'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AD2:AE52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]dataMigrationIndependent!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]dataMigrationIndependent'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AF2:AF42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]apiIntegrateSolution!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]apiIntegrateSolution'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AG2:AG52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]ServiceSupportResponsiveness!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]ServiceSupportResponsiveness'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AH2:AH52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]ServiceSupport!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]ServiceSupport'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AI2:AI52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]supportChannels!#REF!</xm:f>
+            <xm:f>'C:\Users\pleuratkomani\Downloads\[DigitalMarketplace_Pleurat.xlsm]supportChannels'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AJ2:AJ52</xm:sqref>
         </x14:dataValidation>

--- a/resources/ExcelFiles/pluerat_latestfile.xlsx
+++ b/resources/ExcelFiles/pluerat_latestfile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="12735" windowHeight="4980"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="12735" windowHeight="4980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CloudService" sheetId="1" r:id="rId1"/>
@@ -7515,21 +7515,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -7867,8 +7853,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="T100" sqref="T100"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13588,7 +13574,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AK53">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"not specified"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13707,12 +13693,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>apqcCategory!$A$2:$A$1632</xm:f>
-          </x14:formula1>
-          <xm:sqref>G53:G924</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Action!$A$2:$A$63</xm:f>
           </x14:formula1>
           <xm:sqref>H53:H613</xm:sqref>
@@ -13801,6 +13781,12 @@
           </x14:formula1>
           <xm:sqref>AJ2:AJ52</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>apqcCategory!$A$2:$A$1632</xm:f>
+          </x14:formula1>
+          <xm:sqref>G53:G924</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -15505,10 +15491,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:A1632"/>
+  <dimension ref="A1:C1632"/>
   <sheetViews>
-    <sheetView topLeftCell="A1625" workbookViewId="0">
-      <selection activeCell="A1625" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1383" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1389" sqref="A1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22396,162 +22382,162 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386" t="s">
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1386" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387" t="s">
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1387" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388" t="s">
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1388" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390" t="s">
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1390" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391" t="s">
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1391" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392" t="s">
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1392" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393" t="s">
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1393" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394" t="s">
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1394" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395" t="s">
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1395" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396" t="s">
+    <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1396" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397" t="s">
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1397" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398" t="s">
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1398" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399" t="s">
+    <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1399" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400" t="s">
+    <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1400" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401" t="s">
+    <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1401" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
         <v>1572</v>
       </c>
